--- a/kaggle_excel/petfinder.xlsx
+++ b/kaggle_excel/petfinder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\LearningDataSorting\kaggle_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D02CD21-A72B-4B07-8FAF-C69EBE917D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43FD837-8C48-47D4-BB6D-90FF55028C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="epoch=5 fold=5" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>stratifiedKFold</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,6 +73,34 @@
   </si>
   <si>
     <t>mean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ave_mean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fold</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +147,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +170,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -167,38 +201,79 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -211,50 +286,256 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
     <cellStyle name="输入" xfId="2" builtinId="20"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -272,15 +553,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2255519</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>2232659</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19393</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1421473</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -303,7 +584,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2255519" y="5867400"/>
+          <a:off x="2232659" y="6454140"/>
           <a:ext cx="1490054" cy="975360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -313,7 +594,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28418</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C9BDAC-1946-4B79-8F98-FA4B4A81D375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3756660" y="6454141"/>
+          <a:ext cx="1422878" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335FCC21-A2F2-474E-A90A-38696924502C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6576060" y="6492241"/>
+          <a:ext cx="1493520" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D95B4ED-A803-473B-BC4D-99A2709A5D56}" name="表1" displayName="表1" ref="A1:E35" totalsRowShown="0" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{72875306-3795-494B-8111-2E85ACAECD40}" name="version" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2AE17BC6-FBE0-46C3-8BA0-37AA4E40AEA2}" name="version40" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E8F4392A-4D21-4A12-8408-F3AAC3A96411}" name="version41" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3869F706-5B34-4BD7-8BCC-C0576BDBE73C}" name="version43" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{B4B2E607-691A-4239-A094-33017F83AC95}" name="version42" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -593,286 +987,537 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="16" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="7">
         <v>1.44543973874533E-6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="12">
+      <c r="B4" s="8"/>
+      <c r="C4" s="10">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="12">
+      <c r="D4" s="8"/>
+      <c r="E4" s="11">
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="5" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B5" s="13">
         <v>20.487019</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="6">
+      <c r="C5" s="13">
+        <v>17.872949999999999</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15">
+        <v>18.896317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13">
         <v>19.196280000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="6">
+      <c r="C6" s="13">
+        <v>17.889015000000001</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15">
+        <v>18.237698000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13">
         <v>18.712586999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="7">
+      <c r="C7" s="13">
+        <v>17.417202</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15">
+        <v>17.868241999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="16">
         <v>18.604033999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="6">
+      <c r="C8" s="13">
+        <v>17.434159999999999</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="17">
+        <v>17.745932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13">
         <v>18.550104000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="C9" s="13">
+        <v>17.386610000000001</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="17">
+        <v>17.768474999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10">
-        <f>AVERAGE(B4:B8)</f>
+      <c r="B10" s="19">
+        <f>AVERAGE(B5:B9)</f>
         <v>19.110004800000002</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="C10" s="19">
+        <f t="shared" ref="C10:E10" si="0">AVERAGE(C5:C9)</f>
+        <v>17.5999874</v>
+      </c>
+      <c r="D10" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>18.103332799999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="13">
         <v>19.985928000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="6">
+      <c r="C11" s="13">
+        <v>18.420162000000001</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15">
+        <v>18.134224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13">
         <v>19.036282</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="6">
+      <c r="C12" s="13">
+        <v>17.92173</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15">
+        <v>18.178968000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13">
         <v>18.723402</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="6">
+      <c r="C13" s="13">
+        <v>17.768656</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15">
+        <v>17.978864999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13">
         <v>18.626709000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="6">
+      <c r="C14" s="13">
+        <v>17.516155000000001</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15">
+        <v>17.590349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13">
         <v>18.628291999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="C15" s="13">
+        <v>17.531880999999998</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15">
+        <v>17.591051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="10">
-        <f>AVERAGE(B10:B14)</f>
+      <c r="B16" s="19">
+        <f>AVERAGE(B11:B15)</f>
         <v>19.000122600000001</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="C16" s="19">
+        <f t="shared" ref="C16:E16" si="1">AVERAGE(C11:C15)</f>
+        <v>17.831716800000002</v>
+      </c>
+      <c r="D16" s="19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="1"/>
+        <v>17.894691399999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B17" s="13">
         <v>19.280654999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="6">
+      <c r="C17" s="13">
+        <v>20.221741000000002</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15">
+        <v>18.215357000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13">
         <v>18.483409999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="6">
+      <c r="C18" s="13">
+        <v>19.554825000000001</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15">
+        <v>18.638985000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13">
         <v>18.112698000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="6">
+      <c r="C19" s="13">
+        <v>19.102395999999999</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15">
+        <v>17.672844000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13">
         <v>18.00515</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="6">
+      <c r="C20" s="13">
+        <v>19.06316</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15">
+        <v>17.456704999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13">
         <v>17.992930999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="C21" s="13">
+        <v>19.102913000000001</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15">
+        <v>17.413788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="10">
-        <f>AVERAGE(B16:B20)</f>
+      <c r="B22" s="19">
+        <f>AVERAGE(B17:B21)</f>
         <v>18.374968799999998</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="C22" s="19">
+        <f t="shared" ref="C22:E22" si="2">AVERAGE(C17:C21)</f>
+        <v>19.409006999999999</v>
+      </c>
+      <c r="D22" s="19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="2"/>
+        <v>17.879535799999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B23" s="13">
         <v>20.856166999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="6">
+      <c r="C23" s="13">
+        <v>17.841892000000001</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15">
+        <v>18.822882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13">
         <v>20.046211</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="6">
+      <c r="C24" s="13">
+        <v>17.543966000000001</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15">
+        <v>18.371365000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13">
         <v>19.706087</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="6">
+      <c r="C25" s="13">
+        <v>17.366581</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15">
+        <v>18.157205999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13">
         <v>19.562956</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="6">
+      <c r="C26" s="13">
+        <v>17.237898000000001</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15">
+        <v>17.924289999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13">
         <v>19.521124</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="C27" s="13">
+        <v>17.237269999999999</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15">
+        <v>17.952992999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="10">
-        <f>AVERAGE(B22:B26)</f>
+      <c r="B28" s="19">
+        <f>AVERAGE(B23:B27)</f>
         <v>19.938509</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="C28" s="19">
+        <f t="shared" ref="C28:E28" si="3">AVERAGE(C23:C27)</f>
+        <v>17.445521399999997</v>
+      </c>
+      <c r="D28" s="19" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="20">
+        <f t="shared" si="3"/>
+        <v>18.2457472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B29" s="13">
         <v>19.07789</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="6">
+      <c r="C29" s="13">
+        <v>18.399554999999999</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15">
+        <v>18.734570000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13">
         <v>18.108038000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="6">
+      <c r="C30" s="13">
+        <v>18.413563</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15">
+        <v>18.259331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13">
         <v>17.666478999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="6">
+      <c r="C31" s="13">
+        <v>18.033612999999999</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15">
+        <v>18.397352000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13">
         <v>17.634943</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="6">
+      <c r="C32" s="13">
+        <v>17.757217000000001</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15">
+        <v>18.133154000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13">
         <v>17.613319000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="C33" s="13">
+        <v>17.768974</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15">
+        <v>18.040077</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="10">
-        <f>AVERAGE(B28:B32)</f>
+      <c r="B34" s="19">
+        <f>AVERAGE(B29:B33)</f>
         <v>18.0201338</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="C34" s="19">
+        <f t="shared" ref="C34:E34" si="4">AVERAGE(C29:C33)</f>
+        <v>18.074584399999999</v>
+      </c>
+      <c r="D34" s="19" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="20">
+        <f t="shared" si="4"/>
+        <v>18.312896800000001</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="22">
+        <f>AVERAGE(B10,B16,B22,B28,B34)</f>
+        <v>18.888747799999997</v>
+      </c>
+      <c r="C35" s="22">
+        <f t="shared" ref="C35:E35" si="5">AVERAGE(C10,C16,C22,C28,C34)</f>
+        <v>18.072163400000001</v>
+      </c>
+      <c r="D35" s="22" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" s="23">
+        <f t="shared" si="5"/>
+        <v>18.0872408</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A10:A14"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/kaggle_excel/petfinder.xlsx
+++ b/kaggle_excel/petfinder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\LearningDataSorting\kaggle_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43FD837-8C48-47D4-BB6D-90FF55028C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA10D2E-FE9F-49C1-8CB7-B076CD703A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>stratifiedKFold</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -101,6 +101,61 @@
   </si>
   <si>
     <t>fold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">20.480251	</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATCH_SIZE =8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他超参数：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>seed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF055BE0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>999</t>
+    </r>
+  </si>
+  <si>
+    <t>数据集采用的不是原生数据集，是使用efficientdet-d6提前裁剪好的数据集efficientdet-d6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集链接：https://www.kaggle.com/c/petfinder-pawpularity-score/discussion/274303</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下个任务：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始数据集和裁剪数据集做对比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr=2e-5和lr=3.1e-4做对比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -108,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +200,24 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF055BE0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -286,7 +359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,6 +398,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -553,15 +629,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2232659</xdr:colOff>
+      <xdr:colOff>2217419</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1421473</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>1406233</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -584,7 +660,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2232659" y="6454140"/>
+          <a:off x="2217419" y="6332220"/>
           <a:ext cx="1490054" cy="975360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -597,15 +673,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>144781</xdr:rowOff>
+      <xdr:rowOff>60961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>28418</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>13178</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -634,7 +710,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3756660" y="6454141"/>
+          <a:off x="3741420" y="6370321"/>
           <a:ext cx="1422878" cy="944880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -648,14 +724,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
+      <xdr:rowOff>45721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -684,8 +760,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6576060" y="6492241"/>
+          <a:off x="6576060" y="6416041"/>
           <a:ext cx="1493520" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1394461</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A314F0-3BC9-456C-8BF1-B83974CBAA3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="6493"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5120641" y="6416041"/>
+          <a:ext cx="1470659" cy="1036320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -973,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -986,7 +1111,7 @@
     <col min="6" max="11" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +1128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1015,9 +1140,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1025,10 +1152,15 @@
         <v>1.44543973874533E-6</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="10">
+        <v>1.73780077602714E-4</v>
+      </c>
       <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1172,11 @@
       <c r="E4" s="11">
         <v>2.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -1051,12 +1186,14 @@
       <c r="C5" s="13">
         <v>17.872949999999999</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13">
+        <v>20.705905999999999</v>
+      </c>
       <c r="E5" s="15">
         <v>18.896317</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13">
         <v>19.196280000000002</v>
@@ -1064,12 +1201,17 @@
       <c r="C6" s="13">
         <v>17.889015000000001</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="13">
+        <v>20.845558</v>
+      </c>
       <c r="E6" s="15">
         <v>18.237698000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13">
         <v>18.712586999999999</v>
@@ -1077,12 +1219,17 @@
       <c r="C7" s="13">
         <v>17.417202</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="13">
+        <v>20.753397</v>
+      </c>
       <c r="E7" s="15">
         <v>17.868241999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="16">
         <v>18.604033999999999</v>
@@ -1090,12 +1237,12 @@
       <c r="C8" s="13">
         <v>17.434159999999999</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="17">
         <v>17.745932</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13">
         <v>18.550104000000001</v>
@@ -1103,12 +1250,18 @@
       <c r="C9" s="13">
         <v>17.386610000000001</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="17">
         <v>17.768474999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
@@ -1120,16 +1273,22 @@
         <f t="shared" ref="C10:E10" si="0">AVERAGE(C5:C9)</f>
         <v>17.5999874</v>
       </c>
-      <c r="D10" s="19" t="e">
+      <c r="D10" s="19">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>20.768286999999997</v>
       </c>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
         <v>18.103332799999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -1139,12 +1298,14 @@
       <c r="C11" s="13">
         <v>18.420162000000001</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13">
+        <v>20.349266</v>
+      </c>
       <c r="E11" s="15">
         <v>18.134224</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13">
         <v>19.036282</v>
@@ -1152,12 +1313,14 @@
       <c r="C12" s="13">
         <v>17.92173</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13">
+        <v>20.481092</v>
+      </c>
       <c r="E12" s="15">
         <v>18.178968000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13">
         <v>18.723402</v>
@@ -1165,12 +1328,14 @@
       <c r="C13" s="13">
         <v>17.768656</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="E13" s="15">
         <v>17.978864999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13">
         <v>18.626709000000002</v>
@@ -1178,12 +1343,12 @@
       <c r="C14" s="13">
         <v>17.516155000000001</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="15">
         <v>17.590349</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13">
         <v>18.628291999999998</v>
@@ -1191,12 +1356,12 @@
       <c r="C15" s="13">
         <v>17.531880999999998</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="15">
         <v>17.591051</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>9</v>
       </c>
@@ -1208,9 +1373,9 @@
         <f t="shared" ref="C16:E16" si="1">AVERAGE(C11:C15)</f>
         <v>17.831716800000002</v>
       </c>
-      <c r="D16" s="19" t="e">
+      <c r="D16" s="19">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>20.415179000000002</v>
       </c>
       <c r="E16" s="20">
         <f t="shared" si="1"/>
@@ -1227,7 +1392,9 @@
       <c r="C17" s="13">
         <v>20.221741000000002</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="13">
+        <v>19.980651999999999</v>
+      </c>
       <c r="E17" s="15">
         <v>18.215357000000001</v>
       </c>
@@ -1240,7 +1407,9 @@
       <c r="C18" s="13">
         <v>19.554825000000001</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="13">
+        <v>21.502893</v>
+      </c>
       <c r="E18" s="15">
         <v>18.638985000000002</v>
       </c>
@@ -1253,7 +1422,9 @@
       <c r="C19" s="13">
         <v>19.102395999999999</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="13">
+        <v>20.894171</v>
+      </c>
       <c r="E19" s="15">
         <v>17.672844000000001</v>
       </c>
@@ -1266,7 +1437,7 @@
       <c r="C20" s="13">
         <v>19.06316</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="15">
         <v>17.456704999999999</v>
       </c>
@@ -1279,7 +1450,7 @@
       <c r="C21" s="13">
         <v>19.102913000000001</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="15">
         <v>17.413788</v>
       </c>
@@ -1296,9 +1467,9 @@
         <f t="shared" ref="C22:E22" si="2">AVERAGE(C17:C21)</f>
         <v>19.409006999999999</v>
       </c>
-      <c r="D22" s="19" t="e">
+      <c r="D22" s="19">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>20.792572</v>
       </c>
       <c r="E22" s="20">
         <f t="shared" si="2"/>
@@ -1315,7 +1486,9 @@
       <c r="C23" s="13">
         <v>17.841892000000001</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="13">
+        <v>20.079504</v>
+      </c>
       <c r="E23" s="15">
         <v>18.822882</v>
       </c>
@@ -1328,7 +1501,9 @@
       <c r="C24" s="13">
         <v>17.543966000000001</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="13">
+        <v>20.780231000000001</v>
+      </c>
       <c r="E24" s="15">
         <v>18.371365000000001</v>
       </c>
@@ -1341,7 +1516,9 @@
       <c r="C25" s="13">
         <v>17.366581</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="13">
+        <v>20.780971999999998</v>
+      </c>
       <c r="E25" s="15">
         <v>18.157205999999999</v>
       </c>
@@ -1354,7 +1531,7 @@
       <c r="C26" s="13">
         <v>17.237898000000001</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="15">
         <v>17.924289999999999</v>
       </c>
@@ -1367,7 +1544,7 @@
       <c r="C27" s="13">
         <v>17.237269999999999</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="15">
         <v>17.952992999999999</v>
       </c>
@@ -1384,9 +1561,9 @@
         <f t="shared" ref="C28:E28" si="3">AVERAGE(C23:C27)</f>
         <v>17.445521399999997</v>
       </c>
-      <c r="D28" s="19" t="e">
+      <c r="D28" s="19">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>20.546902333333332</v>
       </c>
       <c r="E28" s="20">
         <f t="shared" si="3"/>
@@ -1403,7 +1580,9 @@
       <c r="C29" s="13">
         <v>18.399554999999999</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="14">
+        <v>20.158664999999999</v>
+      </c>
       <c r="E29" s="15">
         <v>18.734570000000001</v>
       </c>
@@ -1416,7 +1595,9 @@
       <c r="C30" s="13">
         <v>18.413563</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="14">
+        <v>20.413627999999999</v>
+      </c>
       <c r="E30" s="15">
         <v>18.259331</v>
       </c>
@@ -1429,7 +1610,9 @@
       <c r="C31" s="13">
         <v>18.033612999999999</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="14">
+        <v>20.140173000000001</v>
+      </c>
       <c r="E31" s="15">
         <v>18.397352000000001</v>
       </c>
@@ -1442,7 +1625,9 @@
       <c r="C32" s="13">
         <v>17.757217000000001</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="14">
+        <v>20.141165000000001</v>
+      </c>
       <c r="E32" s="15">
         <v>18.133154000000001</v>
       </c>
@@ -1455,7 +1640,9 @@
       <c r="C33" s="13">
         <v>17.768974</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="14">
+        <v>20.140343000000001</v>
+      </c>
       <c r="E33" s="15">
         <v>18.040077</v>
       </c>
@@ -1472,9 +1659,9 @@
         <f t="shared" ref="C34:E34" si="4">AVERAGE(C29:C33)</f>
         <v>18.074584399999999</v>
       </c>
-      <c r="D34" s="19" t="e">
+      <c r="D34" s="19">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>20.198794800000002</v>
       </c>
       <c r="E34" s="20">
         <f t="shared" si="4"/>
@@ -1493,9 +1680,9 @@
         <f t="shared" ref="C35:E35" si="5">AVERAGE(C10,C16,C22,C28,C34)</f>
         <v>18.072163400000001</v>
       </c>
-      <c r="D35" s="22" t="e">
+      <c r="D35" s="22">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>20.544347026666664</v>
       </c>
       <c r="E35" s="23">
         <f t="shared" si="5"/>

--- a/kaggle_excel/petfinder.xlsx
+++ b/kaggle_excel/petfinder.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\LearningDataSorting\kaggle_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA10D2E-FE9F-49C1-8CB7-B076CD703A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4F8FEF-3B52-4538-99EA-7024AD985EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="epoch=5 fold=5" sheetId="1" r:id="rId1"/>
+    <sheet name="fold lr" sheetId="1" r:id="rId1"/>
+    <sheet name="dataset lr" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,15 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
-  <si>
-    <t>stratifiedKFold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kfold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>lr=suggest[0]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -104,10 +97,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">20.480251	</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BATCH_SIZE =8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -158,12 +147,47 @@
     <t>lr=2e-5和lr=3.1e-4做对比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>version44</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KFold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StratifiedKFold</t>
+  </si>
+  <si>
+    <t>StratifiedKFold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续增广数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,14 +208,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -219,8 +235,34 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,23 +276,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -349,65 +386,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
-    <cellStyle name="输入" xfId="2" builtinId="20"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
     <dxf>
       <font>
         <b val="0"/>
@@ -430,28 +501,6 @@
           <color auto="1"/>
         </left>
         <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -571,13 +620,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -611,6 +653,234 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -626,210 +896,913 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2217419</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1406233</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="组合 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6F34F1-8CE6-49D4-AB5D-A61C1D5B8E6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2587E6-3E19-40E1-A7E0-ABA2DEE43A29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2217419" y="6332220"/>
-          <a:ext cx="1490054" cy="975360"/>
+          <a:off x="7071360" y="0"/>
+          <a:ext cx="3604260" cy="2537460"/>
+          <a:chOff x="7124700" y="76200"/>
+          <a:chExt cx="3604260" cy="2362200"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="图片 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D512B971-2384-4865-9CB9-5A26CF38369F}"/>
+              </a:ext>
+              <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+                <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7124700" y="76200"/>
+            <a:ext cx="3604260" cy="2362200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="文本框 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CF79D1-433D-4AB5-BEAD-DFF1548A0E65}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8641080" y="144780"/>
+            <a:ext cx="746808" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>version40</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>60961</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>13178</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>129541</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="组合 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C9BDAC-1946-4B79-8F98-FA4B4A81D375}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F78B20-468A-49AA-8449-758E273E4102}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10736580" y="0"/>
+          <a:ext cx="3604260" cy="2537460"/>
+          <a:chOff x="10713720" y="0"/>
+          <a:chExt cx="3604260" cy="2362200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="图片 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8766F83-A852-4B26-BF67-D7810356EF3D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="10713720" y="0"/>
+            <a:ext cx="3604260" cy="2362200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3741420" y="6370321"/>
-          <a:ext cx="1422878" cy="944880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="文本框 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4BD94A-CCD2-4C90-B75B-2B2BD9B7440F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12192000" y="60960"/>
+            <a:ext cx="746808" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>version41</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>106681</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>45721</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="组合 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335FCC21-A2F2-474E-A90A-38696924502C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E99ABA3-D535-4082-8768-B1012C5E3AF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10736580" y="2583180"/>
+          <a:ext cx="3604260" cy="2362200"/>
+          <a:chOff x="7094220" y="2415540"/>
+          <a:chExt cx="3604260" cy="2362200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="图片 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DFD41D-18E1-4EDC-9E28-38CE6364FB50}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7094220" y="2415540"/>
+            <a:ext cx="3604260" cy="2362200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6576060" y="6416041"/>
-          <a:ext cx="1493520" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="文本框 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0ADD7B-A8F1-4F26-A3E3-5792D362E55C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8564880" y="2468880"/>
+            <a:ext cx="746808" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>version42</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1394461</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>106681</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1363980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>91441</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>293370</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="组合 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A314F0-3BC9-456C-8BF1-B83974CBAA3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8115C08-BD10-4EEF-83A1-ECF620C69C3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7063740" y="2583180"/>
+          <a:ext cx="3600450" cy="2362200"/>
+          <a:chOff x="7078980" y="2506980"/>
+          <a:chExt cx="3600450" cy="2362200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="图片 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7831964C-EE4F-4BB9-9E35-A795667DA2A0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7078980" y="2506980"/>
+            <a:ext cx="3600450" cy="2362200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="文本框 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2971BA4C-AF97-4983-A8CF-E4CFE4BF1B2D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8572500" y="2552700"/>
+            <a:ext cx="746808" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>version43</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="组合 12">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102B92C5-4D1B-4172-A16B-AEE57AF9D257}"/>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:srcRect r="6493"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5120641" y="6416041"/>
-          <a:ext cx="1470659" cy="1036320"/>
+          <a:off x="6385560" y="0"/>
+          <a:ext cx="3604260" cy="2362200"/>
+          <a:chOff x="6385560" y="0"/>
+          <a:chExt cx="3604260" cy="2362200"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="图片 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E566D20A-E988-4FB7-A93E-D1112116A4F6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="6385560" y="0"/>
+            <a:ext cx="3604260" cy="2362200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="文本框 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0020DBA1-C572-4CE1-ABE4-85A91AA02565}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7856220" y="53340"/>
+            <a:ext cx="746808" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>version41</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="组合 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7007BD8D-58D2-43FA-9438-3205AA5DC3EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10241280" y="0"/>
+          <a:ext cx="3604260" cy="2362200"/>
+          <a:chOff x="10241280" y="0"/>
+          <a:chExt cx="3604260" cy="2362200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="图片 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134A32D4-72C6-484E-8E23-A94AEDF30C8E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="10241280" y="0"/>
+            <a:ext cx="3604260" cy="2362200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="文本框 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FDE56D-A376-4E6E-9D8A-307236026AB9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11803380" y="53340"/>
+            <a:ext cx="746808" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>version44</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="组合 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D82626E-A0C7-47C9-B097-C96DD335611C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6332220" y="2545080"/>
+          <a:ext cx="3657600" cy="2390775"/>
+          <a:chOff x="6332220" y="2545080"/>
+          <a:chExt cx="3657600" cy="2390775"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="图片 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCBC2353-1ED7-4F40-AAFB-6DC655842463}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6332220" y="2545080"/>
+            <a:ext cx="3657600" cy="2390775"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="文本框 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6807E70-5CBD-40EE-9B6A-9E983C97E335}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7840980" y="2613660"/>
+            <a:ext cx="746808" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>version45</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D95B4ED-A803-473B-BC4D-99A2709A5D56}" name="表1" displayName="表1" ref="A1:E35" totalsRowShown="0" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D95B4ED-A803-473B-BC4D-99A2709A5D56}" name="表1" displayName="表1" ref="A1:E36" totalsRowShown="0" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{72875306-3795-494B-8111-2E85ACAECD40}" name="version" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{2AE17BC6-FBE0-46C3-8BA0-37AA4E40AEA2}" name="version40" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E8F4392A-4D21-4A12-8408-F3AAC3A96411}" name="version41" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{3869F706-5B34-4BD7-8BCC-C0576BDBE73C}" name="version43" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{B4B2E607-691A-4239-A094-33017F83AC95}" name="version42" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{72875306-3795-494B-8111-2E85ACAECD40}" name="version" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{2AE17BC6-FBE0-46C3-8BA0-37AA4E40AEA2}" name="version40" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{E8F4392A-4D21-4A12-8408-F3AAC3A96411}" name="version41" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3869F706-5B34-4BD7-8BCC-C0576BDBE73C}" name="version43" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B4B2E607-691A-4239-A094-33017F83AC95}" name="version42" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72CA7635-36F5-4214-A002-9BEC079F411D}" name="表1_3" displayName="表1_3" ref="A1:D35" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A266C22A-51AE-44DE-A8A7-4CD05A0F5754}" name="version" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{57F2F9BE-3384-4972-9D5A-0D22F7838E90}" name="version41" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D954F91E-DC33-44C7-9623-283720689D58}" name="version45" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{418AB96D-92C3-44CE-8CD9-2BC77196B2A6}" name="version44" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1098,605 +2071,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:XFD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" customWidth="1"/>
-    <col min="2" max="5" width="20.77734375" customWidth="1"/>
+    <col min="1" max="5" width="20.77734375" customWidth="1"/>
     <col min="6" max="11" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1.44543973874533E-6</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23">
+        <v>1.73780077602714E-4</v>
+      </c>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1.44543973874533E-6</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10">
-        <v>1.73780077602714E-4</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="10">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="11">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="13">
+    </row>
+    <row r="6" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
         <v>20.487019</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C6" s="5">
         <v>17.872949999999999</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D6" s="5">
         <v>20.705905999999999</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E6" s="7">
         <v>18.896317</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13">
+    <row r="7" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5">
         <v>19.196280000000002</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C7" s="5">
         <v>17.889015000000001</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D7" s="5">
         <v>20.845558</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E7" s="7">
         <v>18.237698000000002</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13">
+    </row>
+    <row r="8" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5">
         <v>18.712586999999999</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C8" s="5">
         <v>17.417202</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="5">
         <v>20.753397</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E8" s="7">
         <v>17.868241999999999</v>
       </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="16">
+    </row>
+    <row r="9" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8">
         <v>18.604033999999999</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C9" s="5">
         <v>17.434159999999999</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="17">
+      <c r="D9" s="5"/>
+      <c r="E9" s="9">
         <v>17.745932</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13">
+    <row r="10" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5">
         <v>18.550104000000001</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C10" s="5">
         <v>17.386610000000001</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="17">
+      <c r="D10" s="5"/>
+      <c r="E10" s="9">
         <v>17.768474999999999</v>
       </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19">
-        <f>AVERAGE(B5:B9)</f>
+    </row>
+    <row r="11" spans="1:5 16384:16384" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11">
+        <f>AVERAGE(B6:B10)</f>
         <v>19.110004800000002</v>
       </c>
-      <c r="C10" s="19">
-        <f t="shared" ref="C10:E10" si="0">AVERAGE(C5:C9)</f>
+      <c r="C11" s="11">
+        <f t="shared" ref="C11:E11" si="0">AVERAGE(C6:C10)</f>
         <v>17.5999874</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>20.768286999999997</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>18.103332799999997</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="13">
+    </row>
+    <row r="12" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5">
         <v>19.985928000000001</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C12" s="5">
         <v>18.420162000000001</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="5">
         <v>20.349266</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="7">
         <v>18.134224</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13">
+    <row r="13" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5">
         <v>19.036282</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C13" s="5">
         <v>17.92173</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D13" s="5">
         <v>20.481092</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E13" s="7">
         <v>18.178968000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13">
+    <row r="14" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5">
         <v>18.723402</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C14" s="5">
         <v>17.768656</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="D14" s="5">
+        <v>20.480250999999999</v>
+      </c>
+      <c r="E14" s="7">
         <v>17.978864999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13">
+    <row r="15" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5">
         <v>18.626709000000002</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C15" s="5">
         <v>17.516155000000001</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="15">
+      <c r="D15" s="5"/>
+      <c r="E15" s="7">
         <v>17.590349</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13">
+    <row r="16" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5">
         <v>18.628291999999998</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C16" s="5">
         <v>17.531880999999998</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="15">
+      <c r="D16" s="5"/>
+      <c r="E16" s="7">
         <v>17.591051</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="19">
-        <f>AVERAGE(B11:B15)</f>
+      <c r="XFD16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="11">
+        <f>AVERAGE(B12:B16)</f>
         <v>19.000122600000001</v>
       </c>
-      <c r="C16" s="19">
-        <f t="shared" ref="C16:E16" si="1">AVERAGE(C11:C15)</f>
+      <c r="C17" s="11">
+        <f t="shared" ref="C17:E17" si="1">AVERAGE(C12:C16)</f>
         <v>17.831716800000002</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D17" s="11">
         <f t="shared" si="1"/>
-        <v>20.415179000000002</v>
-      </c>
-      <c r="E16" s="20">
+        <v>20.436869666666666</v>
+      </c>
+      <c r="E17" s="12">
         <f t="shared" si="1"/>
         <v>17.894691399999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="13">
+    <row r="18" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5">
         <v>19.280654999999999</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C18" s="5">
         <v>20.221741000000002</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="5">
         <v>19.980651999999999</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E18" s="7">
         <v>18.215357000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13">
+    <row r="19" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5">
         <v>18.483409999999999</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C19" s="5">
         <v>19.554825000000001</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="5">
         <v>21.502893</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="7">
         <v>18.638985000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13">
+    <row r="20" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5">
         <v>18.112698000000002</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C20" s="5">
         <v>19.102395999999999</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="5">
         <v>20.894171</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="7">
         <v>17.672844000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13">
+    <row r="21" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5">
         <v>18.00515</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C21" s="5">
         <v>19.06316</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="15">
+      <c r="D21" s="5"/>
+      <c r="E21" s="7">
         <v>17.456704999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13">
+    <row r="22" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5">
         <v>17.992930999999999</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C22" s="5">
         <v>19.102913000000001</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="15">
+      <c r="D22" s="5"/>
+      <c r="E22" s="7">
         <v>17.413788</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="19">
-        <f>AVERAGE(B17:B21)</f>
+    <row r="23" spans="1:5" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="11">
+        <f>AVERAGE(B18:B22)</f>
         <v>18.374968799999998</v>
       </c>
-      <c r="C22" s="19">
-        <f t="shared" ref="C22:E22" si="2">AVERAGE(C17:C21)</f>
+      <c r="C23" s="11">
+        <f t="shared" ref="C23:E23" si="2">AVERAGE(C18:C22)</f>
         <v>19.409006999999999</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D23" s="11">
         <f t="shared" si="2"/>
         <v>20.792572</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E23" s="12">
         <f t="shared" si="2"/>
         <v>17.879535799999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+    <row r="24" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="5">
+        <v>20.856166999999999</v>
+      </c>
+      <c r="C24" s="5">
+        <v>17.841892000000001</v>
+      </c>
+      <c r="D24" s="5">
+        <v>20.079504</v>
+      </c>
+      <c r="E24" s="7">
+        <v>18.822882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5">
+        <v>20.046211</v>
+      </c>
+      <c r="C25" s="5">
+        <v>17.543966000000001</v>
+      </c>
+      <c r="D25" s="5">
+        <v>20.780231000000001</v>
+      </c>
+      <c r="E25" s="7">
+        <v>18.371365000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5">
+        <v>19.706087</v>
+      </c>
+      <c r="C26" s="5">
+        <v>17.366581</v>
+      </c>
+      <c r="D26" s="5">
+        <v>20.780971999999998</v>
+      </c>
+      <c r="E26" s="7">
+        <v>18.157205999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5">
+        <v>19.562956</v>
+      </c>
+      <c r="C27" s="5">
+        <v>17.237898000000001</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7">
+        <v>17.924289999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5">
+        <v>19.521124</v>
+      </c>
+      <c r="C28" s="5">
+        <v>17.237269999999999</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7">
+        <v>17.952992999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="13">
-        <v>20.856166999999999</v>
-      </c>
-      <c r="C23" s="13">
-        <v>17.841892000000001</v>
-      </c>
-      <c r="D23" s="13">
-        <v>20.079504</v>
-      </c>
-      <c r="E23" s="15">
-        <v>18.822882</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13">
-        <v>20.046211</v>
-      </c>
-      <c r="C24" s="13">
-        <v>17.543966000000001</v>
-      </c>
-      <c r="D24" s="13">
-        <v>20.780231000000001</v>
-      </c>
-      <c r="E24" s="15">
-        <v>18.371365000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13">
-        <v>19.706087</v>
-      </c>
-      <c r="C25" s="13">
-        <v>17.366581</v>
-      </c>
-      <c r="D25" s="13">
-        <v>20.780971999999998</v>
-      </c>
-      <c r="E25" s="15">
-        <v>18.157205999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13">
-        <v>19.562956</v>
-      </c>
-      <c r="C26" s="13">
-        <v>17.237898000000001</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="15">
-        <v>17.924289999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13">
-        <v>19.521124</v>
-      </c>
-      <c r="C27" s="13">
-        <v>17.237269999999999</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="15">
-        <v>17.952992999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="19">
-        <f>AVERAGE(B23:B27)</f>
+      <c r="B29" s="11">
+        <f>AVERAGE(B24:B28)</f>
         <v>19.938509</v>
       </c>
-      <c r="C28" s="19">
-        <f t="shared" ref="C28:E28" si="3">AVERAGE(C23:C27)</f>
+      <c r="C29" s="11">
+        <f t="shared" ref="C29:E29" si="3">AVERAGE(C24:C28)</f>
         <v>17.445521399999997</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D29" s="11">
         <f t="shared" si="3"/>
         <v>20.546902333333332</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E29" s="12">
         <f t="shared" si="3"/>
         <v>18.2457472</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="13">
+    <row r="30" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="5">
         <v>19.07789</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C30" s="5">
         <v>18.399554999999999</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="6">
         <v>20.158664999999999</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E30" s="7">
         <v>18.734570000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13">
+    <row r="31" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5">
         <v>18.108038000000001</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C31" s="5">
         <v>18.413563</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="6">
         <v>20.413627999999999</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="7">
         <v>18.259331</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13">
+    <row r="32" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5">
         <v>17.666478999999999</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C32" s="5">
         <v>18.033612999999999</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="6">
         <v>20.140173000000001</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E32" s="7">
         <v>18.397352000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13">
+    <row r="33" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5">
         <v>17.634943</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C33" s="5">
         <v>17.757217000000001</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="6">
         <v>20.141165000000001</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E33" s="7">
         <v>18.133154000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13">
+    <row r="34" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5">
         <v>17.613319000000001</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C34" s="5">
         <v>17.768974</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="6">
         <v>20.140343000000001</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E34" s="7">
         <v>18.040077</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="19">
-        <f>AVERAGE(B29:B33)</f>
+    <row r="35" spans="1:5" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="11">
+        <f>AVERAGE(B30:B34)</f>
         <v>18.0201338</v>
       </c>
-      <c r="C34" s="19">
-        <f t="shared" ref="C34:E34" si="4">AVERAGE(C29:C33)</f>
+      <c r="C35" s="11">
+        <f t="shared" ref="C35:E35" si="4">AVERAGE(C30:C34)</f>
         <v>18.074584399999999</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D35" s="11">
         <f t="shared" si="4"/>
         <v>20.198794800000002</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E35" s="12">
         <f t="shared" si="4"/>
         <v>18.312896800000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="22">
-        <f>AVERAGE(B10,B16,B22,B28,B34)</f>
+    <row r="36" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="18">
+        <f>AVERAGE(B11,B17,B23,B29,B35)</f>
         <v>18.888747799999997</v>
       </c>
-      <c r="C35" s="22">
-        <f t="shared" ref="C35:E35" si="5">AVERAGE(C10,C16,C22,C28,C34)</f>
+      <c r="C36" s="18">
+        <f t="shared" ref="C36:E36" si="5">AVERAGE(C11,C17,C23,C29,C35)</f>
         <v>18.072163400000001</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D36" s="18">
         <f t="shared" si="5"/>
-        <v>20.544347026666664</v>
-      </c>
-      <c r="E35" s="23">
+        <v>20.548685159999998</v>
+      </c>
+      <c r="E36" s="19">
         <f t="shared" si="5"/>
         <v>18.0872408</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-    </row>
     <row r="37" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1707,4 +2717,485 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2567035A-72A7-48FD-B0C1-0B9CACA3FBE9}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C4" s="27">
+        <v>3.1E-4</v>
+      </c>
+      <c r="D4" s="27">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>17.872949999999999</v>
+      </c>
+      <c r="C5" s="5">
+        <v>20.582706000000002</v>
+      </c>
+      <c r="D5" s="7">
+        <v>19.543168999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5">
+        <v>17.889015000000001</v>
+      </c>
+      <c r="C6" s="5">
+        <v>20.468014</v>
+      </c>
+      <c r="D6" s="7">
+        <v>18.350639000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5">
+        <v>17.417202</v>
+      </c>
+      <c r="C7" s="5">
+        <v>20.560095</v>
+      </c>
+      <c r="D7" s="7">
+        <v>17.859259000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5">
+        <v>17.434159999999999</v>
+      </c>
+      <c r="C8" s="5">
+        <v>20.480039999999999</v>
+      </c>
+      <c r="D8" s="7">
+        <v>17.831163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5">
+        <v>17.386610000000001</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7">
+        <v>17.834326000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="shared" ref="B10:D10" si="0">AVERAGE(B5:B9)</f>
+        <v>17.5999874</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="0"/>
+        <v>20.522713750000001</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="0"/>
+        <v>18.283711200000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>18.420162000000001</v>
+      </c>
+      <c r="C11" s="5">
+        <v>20.915704999999999</v>
+      </c>
+      <c r="D11" s="7">
+        <v>18.578862999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5">
+        <v>17.92173</v>
+      </c>
+      <c r="C12" s="5">
+        <v>21.056398000000002</v>
+      </c>
+      <c r="D12" s="7">
+        <v>18.190816999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5">
+        <v>17.768656</v>
+      </c>
+      <c r="C13" s="5">
+        <v>20.873638</v>
+      </c>
+      <c r="D13" s="7">
+        <v>18.233355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5">
+        <v>17.516155000000001</v>
+      </c>
+      <c r="C14" s="5">
+        <v>20.924257000000001</v>
+      </c>
+      <c r="D14" s="7">
+        <v>17.928476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5">
+        <v>17.531880999999998</v>
+      </c>
+      <c r="C15" s="5">
+        <v>20.872297</v>
+      </c>
+      <c r="D15" s="7">
+        <v>17.966529999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11">
+        <f t="shared" ref="B16:D16" si="1">AVERAGE(B11:B15)</f>
+        <v>17.831716800000002</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" si="1"/>
+        <v>20.928459</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="1"/>
+        <v>18.179608200000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5">
+        <v>20.221741000000002</v>
+      </c>
+      <c r="C17" s="5">
+        <v>22.991803999999998</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17.722116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5">
+        <v>19.554825000000001</v>
+      </c>
+      <c r="C18" s="5">
+        <v>20.205490000000001</v>
+      </c>
+      <c r="D18" s="7">
+        <v>17.378011999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5">
+        <v>19.102395999999999</v>
+      </c>
+      <c r="C19" s="5">
+        <v>20.194386999999999</v>
+      </c>
+      <c r="D19" s="7">
+        <v>17.141596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5">
+        <v>19.06316</v>
+      </c>
+      <c r="C20" s="5">
+        <v>20.174429</v>
+      </c>
+      <c r="D20" s="7">
+        <v>16.958344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5">
+        <v>19.102913000000001</v>
+      </c>
+      <c r="C21" s="5">
+        <v>20.174416999999998</v>
+      </c>
+      <c r="D21" s="7">
+        <v>16.972086000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="11">
+        <f t="shared" ref="B22:D22" si="2">AVERAGE(B17:B21)</f>
+        <v>19.409006999999999</v>
+      </c>
+      <c r="C22" s="11">
+        <f t="shared" si="2"/>
+        <v>20.748105399999996</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="2"/>
+        <v>17.234430800000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5">
+        <v>17.841892000000001</v>
+      </c>
+      <c r="C23" s="5">
+        <v>21.104424999999999</v>
+      </c>
+      <c r="D23" s="7">
+        <v>18.231995000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5">
+        <v>17.543966000000001</v>
+      </c>
+      <c r="C24" s="5">
+        <v>21.105276</v>
+      </c>
+      <c r="D24" s="7">
+        <v>17.899381999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5">
+        <v>17.366581</v>
+      </c>
+      <c r="C25" s="5">
+        <v>21.206168999999999</v>
+      </c>
+      <c r="D25" s="7">
+        <v>17.703499000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5">
+        <v>17.237898000000001</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7">
+        <v>17.444811000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5">
+        <v>17.237269999999999</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7">
+        <v>17.43948</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="11">
+        <f t="shared" ref="B28:D28" si="3">AVERAGE(B23:B27)</f>
+        <v>17.445521399999997</v>
+      </c>
+      <c r="C28" s="11">
+        <f t="shared" si="3"/>
+        <v>21.138623333333332</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="3"/>
+        <v>17.7438334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5">
+        <v>18.399554999999999</v>
+      </c>
+      <c r="C29" s="5">
+        <v>20.601358000000001</v>
+      </c>
+      <c r="D29" s="7">
+        <v>18.090294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5">
+        <v>18.413563</v>
+      </c>
+      <c r="C30" s="5">
+        <v>20.809643000000001</v>
+      </c>
+      <c r="D30" s="7">
+        <v>18.338923999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5">
+        <v>18.033612999999999</v>
+      </c>
+      <c r="C31" s="5">
+        <v>20.335588000000001</v>
+      </c>
+      <c r="D31" s="7">
+        <v>18.247769999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5">
+        <v>17.757217000000001</v>
+      </c>
+      <c r="C32" s="5">
+        <v>20.317285999999999</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5">
+        <v>17.768974</v>
+      </c>
+      <c r="C33" s="5">
+        <v>20.321846000000001</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="11">
+        <f t="shared" ref="B34:D34" si="4">AVERAGE(B29:B33)</f>
+        <v>18.074584399999999</v>
+      </c>
+      <c r="C34" s="11">
+        <f t="shared" si="4"/>
+        <v>20.477144199999998</v>
+      </c>
+      <c r="D34" s="12">
+        <f t="shared" si="4"/>
+        <v>18.225662666666665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="18">
+        <f t="shared" ref="B35:D35" si="5">AVERAGE(B10,B16,B22,B28,B34)</f>
+        <v>18.072163400000001</v>
+      </c>
+      <c r="C35" s="18">
+        <f t="shared" si="5"/>
+        <v>20.763009136666664</v>
+      </c>
+      <c r="D35" s="19">
+        <f t="shared" si="5"/>
+        <v>17.933449253333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/kaggle_excel/petfinder.xlsx
+++ b/kaggle_excel/petfinder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\LearningDataSorting\kaggle_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4F8FEF-3B52-4538-99EA-7024AD985EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF2269F-E807-472F-8F7A-436C3CA9EA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fold lr" sheetId="1" r:id="rId1"/>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t>version43</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ave_mean</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -180,6 +176,10 @@
   </si>
   <si>
     <t>继续增广数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv(average mean)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2073,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2102,36 +2102,36 @@
     </row>
     <row r="2" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2637,7 +2637,7 @@
     </row>
     <row r="36" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B36" s="18">
         <f>AVERAGE(B11,B17,B23,B29,B35)</f>
@@ -2661,51 +2661,51 @@
     </row>
     <row r="38" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2723,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2567035A-72A7-48FD-B0C1-0B9CACA3FBE9}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2740,38 +2740,38 @@
         <v>10</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3175,7 +3175,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B35" s="18">
         <f t="shared" ref="B35:D35" si="5">AVERAGE(B10,B16,B22,B28,B34)</f>
@@ -3193,9 +3193,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/kaggle_excel/petfinder.xlsx
+++ b/kaggle_excel/petfinder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\LearningDataSorting\kaggle_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF2269F-E807-472F-8F7A-436C3CA9EA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22D954B5-9D61-4458-A929-FB9872441EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2232" windowWidth="20400" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fold lr" sheetId="1" r:id="rId1"/>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>version43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ave_mean</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -176,10 +180,6 @@
   </si>
   <si>
     <t>继续增广数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cv(average mean)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2073,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2102,36 +2102,36 @@
     </row>
     <row r="2" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2637,7 +2637,7 @@
     </row>
     <row r="36" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B36" s="18">
         <f>AVERAGE(B11,B17,B23,B29,B35)</f>
@@ -2661,51 +2661,51 @@
     </row>
     <row r="38" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2723,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2567035A-72A7-48FD-B0C1-0B9CACA3FBE9}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2740,38 +2740,38 @@
         <v>10</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3175,7 +3175,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B35" s="18">
         <f t="shared" ref="B35:D35" si="5">AVERAGE(B10,B16,B22,B28,B34)</f>
@@ -3193,10 +3193,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/kaggle_excel/petfinder.xlsx
+++ b/kaggle_excel/petfinder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b7c161fc17f1e87/KaggleArchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22D954B5-9D61-4458-A929-FB9872441EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C4BFBE54-6BE2-4046-BB7D-E790FB606116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06298D1B-8ACC-43C3-A704-0989103E3A73}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2232" windowWidth="20400" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fold lr" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>lr=suggest[0]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t>version43</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ave_mean</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -180,6 +176,14 @@
   </si>
   <si>
     <t>继续增广数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv(average mean)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait for 17 hours</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2073,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2102,36 +2106,36 @@
     </row>
     <row r="2" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5 16384:16384" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2637,7 +2641,7 @@
     </row>
     <row r="36" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B36" s="18">
         <f>AVERAGE(B11,B17,B23,B29,B35)</f>
@@ -2661,51 +2665,54 @@
     </row>
     <row r="38" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2724,7 +2731,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2740,38 +2747,38 @@
         <v>10</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3175,7 +3182,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B35" s="18">
         <f t="shared" ref="B35:D35" si="5">AVERAGE(B10,B16,B22,B28,B34)</f>

--- a/kaggle_excel/petfinder.xlsx
+++ b/kaggle_excel/petfinder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b7c161fc17f1e87/KaggleArchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C4BFBE54-6BE2-4046-BB7D-E790FB606116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06298D1B-8ACC-43C3-A704-0989103E3A73}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{C4BFBE54-6BE2-4046-BB7D-E790FB606116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{615F9D78-35EB-4F3B-AE4D-913B2BF2AB5B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>lr=suggest[0]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -183,7 +183,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>wait for 17 hours</t>
+    <t>加上了Dihedral(),RandomErasing()结果18.1变坏了，可能是增广过头了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只加Dihedral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version49</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2075,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD47"/>
+  <dimension ref="A1:XFD48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2705,14 +2717,28 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="25" t="s">
         <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
